--- a/RNA datasets/GENE_LIST.xlsx
+++ b/RNA datasets/GENE_LIST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saraper/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41BA86B-B438-5343-A466-69F9DE6ED141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A59F6B34-EA8C-FF42-A3DE-2D48F325D8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="500" windowWidth="14280" windowHeight="15820" xr2:uid="{81CEB363-36AE-E345-9BCC-0B50B5BDAD1A}"/>
+    <workbookView xWindow="14520" yWindow="500" windowWidth="14280" windowHeight="15800" xr2:uid="{81CEB363-36AE-E345-9BCC-0B50B5BDAD1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="239">
   <si>
     <t>AKT</t>
   </si>
@@ -374,30 +374,9 @@
     <t>PATHWAY</t>
   </si>
   <si>
-    <t>PI3K/Akt signalling pathway</t>
-  </si>
-  <si>
-    <t>P38 MAPK and JNK MAPK signalling pathway</t>
-  </si>
-  <si>
     <t>NOD-like receptor signaling pathway</t>
   </si>
   <si>
-    <t>TNF-alpha signalling pathway</t>
-  </si>
-  <si>
-    <t>NFKB, JNK and P38 signalling pathways</t>
-  </si>
-  <si>
-    <t>IL-22 signalling pathway</t>
-  </si>
-  <si>
-    <t>NFKB signalling pathway</t>
-  </si>
-  <si>
-    <t>Type I interferon and IL-22 signalling pathways</t>
-  </si>
-  <si>
     <t>P19876</t>
   </si>
   <si>
@@ -428,15 +407,9 @@
     <t>P14902</t>
   </si>
   <si>
-    <t>Type I interferon, TNF and IL1b signalling pathways</t>
-  </si>
-  <si>
     <t>P01562</t>
   </si>
   <si>
-    <t>Type I interferon signalling pathway</t>
-  </si>
-  <si>
     <t>P17181,  P48551</t>
   </si>
   <si>
@@ -446,27 +419,15 @@
     <t>P01579</t>
   </si>
   <si>
-    <t>Type I and II interferon signalling pathway</t>
-  </si>
-  <si>
     <t>P15260, P38484</t>
   </si>
   <si>
-    <t>Type II interferon signalling pathway</t>
-  </si>
-  <si>
     <t>Q8IU54</t>
   </si>
   <si>
-    <t>Toll-like receptor signalling pathways</t>
-  </si>
-  <si>
     <t>Q8IU57, Q08334</t>
   </si>
   <si>
-    <t>Type III interferon signalling pathway</t>
-  </si>
-  <si>
     <t>O14920</t>
   </si>
   <si>
@@ -476,21 +437,9 @@
     <t>Q16552</t>
   </si>
   <si>
-    <t>IL-17 signalling pathway</t>
-  </si>
-  <si>
-    <t>Q8NAC3</t>
-  </si>
-  <si>
     <t>P01584</t>
   </si>
   <si>
-    <t>NFKB, Type I interferon and PI3K/Akt  signalling pathways</t>
-  </si>
-  <si>
-    <t>IL1b signalling pathway</t>
-  </si>
-  <si>
     <t>P14778, Q9NPH3</t>
   </si>
   <si>
@@ -518,39 +467,21 @@
     <t>P42224</t>
   </si>
   <si>
-    <t>Type I and III interferon signalling pathway</t>
-  </si>
-  <si>
     <t>P23458, P29597</t>
   </si>
   <si>
-    <t>Type I and III interferon and IL-22 signalling pathways</t>
-  </si>
-  <si>
     <t>P45983</t>
   </si>
   <si>
-    <t>JNK MAPK signalling pathway</t>
-  </si>
-  <si>
     <t>Q16539</t>
   </si>
   <si>
-    <t>P38 MAPK signalling pathway</t>
-  </si>
-  <si>
     <t>O43318</t>
   </si>
   <si>
-    <t>NFKB, P38 and JNK  signalling pathways</t>
-  </si>
-  <si>
     <t>P80188</t>
   </si>
   <si>
-    <t>TNF and IL22 signalling pathways</t>
-  </si>
-  <si>
     <t>P09237</t>
   </si>
   <si>
@@ -560,9 +491,6 @@
     <t>Q99836</t>
   </si>
   <si>
-    <t>P19838</t>
-  </si>
-  <si>
     <t xml:space="preserve"> P25963</t>
   </si>
   <si>
@@ -587,15 +515,9 @@
     <t>P17706</t>
   </si>
   <si>
-    <t>Type I interferon, IFNG and IL-22 signalling pathways</t>
-  </si>
-  <si>
     <t>Q06141</t>
   </si>
   <si>
-    <t>TNF, IL22 and IL17 signalling pathways</t>
-  </si>
-  <si>
     <t>Q13546</t>
   </si>
   <si>
@@ -620,9 +542,6 @@
     <t>P0DJI9</t>
   </si>
   <si>
-    <t>TNF signalling pathway</t>
-  </si>
-  <si>
     <t>Q9UHD2</t>
   </si>
   <si>
@@ -746,9 +665,6 @@
     <t>P38936</t>
   </si>
   <si>
-    <t>Akt signalling pathway</t>
-  </si>
-  <si>
     <t>Proliferation and cell survival</t>
   </si>
   <si>
@@ -756,6 +672,87 @@
   </si>
   <si>
     <t>TNF_e</t>
+  </si>
+  <si>
+    <t>PRR signaling pathway</t>
+  </si>
+  <si>
+    <t>Type I, II and III interferon, and IL22 signaling pathways</t>
+  </si>
+  <si>
+    <t>Type I, II and III interferon signaling pathways</t>
+  </si>
+  <si>
+    <t>PI3K/Akt signaling pathway</t>
+  </si>
+  <si>
+    <t>NFKB signaling pathway</t>
+  </si>
+  <si>
+    <t>IL-22 signaling pathway</t>
+  </si>
+  <si>
+    <t>Type II interferon signaling pathway</t>
+  </si>
+  <si>
+    <t>Type II interferon, TNF and IL1b signaling pathways</t>
+  </si>
+  <si>
+    <t>Type I and III interferon signaling pathways</t>
+  </si>
+  <si>
+    <t>Type I and III interferon signaling pathway</t>
+  </si>
+  <si>
+    <t>Type III interferon signaling pathway</t>
+  </si>
+  <si>
+    <t>TNF and IL22 signaling pathways</t>
+  </si>
+  <si>
+    <t>TNF, IL22 and IL17 signaling pathways</t>
+  </si>
+  <si>
+    <t>TNF signaling pathway</t>
+  </si>
+  <si>
+    <t>Type I interferon signaling pathway</t>
+  </si>
+  <si>
+    <t>IL-17 signaling pathway</t>
+  </si>
+  <si>
+    <t>IL1b signaling pathway</t>
+  </si>
+  <si>
+    <t>NFKB, Type I interferon and PI3K/Akt  signaling pathways</t>
+  </si>
+  <si>
+    <t>Akt signaling pathway</t>
+  </si>
+  <si>
+    <t>JNK MAPK signaling pathway</t>
+  </si>
+  <si>
+    <t>P38 MAPK signaling pathway</t>
+  </si>
+  <si>
+    <t>NFKB, JNK and P38 signaling pathways</t>
+  </si>
+  <si>
+    <t>NFKB, P38 and JNK  signaling pathways</t>
+  </si>
+  <si>
+    <t>Type I and II interferon signaling pathway</t>
+  </si>
+  <si>
+    <t>P38 MAPK and JNK MAPK signaling pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P19838,Q04206 </t>
+  </si>
+  <si>
+    <t>Q8NAC3,Q96F46</t>
   </si>
 </sst>
 </file>
@@ -1154,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624129ED-6752-9245-9A79-D12C17D48BDC}">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1177,119 +1174,119 @@
         <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="D4" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>102</v>
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>215</v>
       </c>
       <c r="D5" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>105</v>
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>216</v>
       </c>
       <c r="D7" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>216</v>
       </c>
       <c r="D8" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>101</v>
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="D9" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1300,10 +1297,10 @@
         <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>217</v>
       </c>
       <c r="D10" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1314,10 +1311,10 @@
         <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>216</v>
       </c>
       <c r="D11" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1325,13 +1322,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="D12" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1339,13 +1336,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="D13" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1353,13 +1350,13 @@
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="D14" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1367,13 +1364,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="D15" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1381,13 +1378,13 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="D16" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1395,13 +1392,13 @@
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1409,27 +1406,27 @@
         <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C18" t="s">
-        <v>160</v>
+        <v>221</v>
       </c>
       <c r="D18" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>222</v>
       </c>
       <c r="D19" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1437,13 +1434,13 @@
         <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="C20" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="D20" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1451,13 +1448,13 @@
         <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="D21" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1465,13 +1462,13 @@
         <v>71</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="C22" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="D22" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1479,13 +1476,13 @@
         <v>76</v>
       </c>
       <c r="B23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" t="s">
         <v>189</v>
-      </c>
-      <c r="C23" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1493,13 +1490,13 @@
         <v>77</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c r="D24" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1507,13 +1504,13 @@
         <v>81</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="C25" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="D25" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1521,13 +1518,13 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D26" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1535,13 +1532,13 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1549,13 +1546,13 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1563,13 +1560,13 @@
         <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
-        <v>132</v>
+        <v>226</v>
       </c>
       <c r="D29" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1577,13 +1574,13 @@
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>226</v>
       </c>
       <c r="D30" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1591,13 +1588,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C31" t="s">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="D31" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1605,13 +1602,13 @@
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C32" t="s">
-        <v>142</v>
+        <v>222</v>
       </c>
       <c r="D32" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1619,13 +1616,13 @@
         <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>227</v>
       </c>
       <c r="D33" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1633,13 +1630,13 @@
         <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="D34" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1647,13 +1644,13 @@
         <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c r="D35" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1661,13 +1658,13 @@
         <v>53</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1675,13 +1672,13 @@
         <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1689,27 +1686,27 @@
         <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D38" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="D39" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1717,41 +1714,41 @@
         <v>74</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="D40" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="C41" t="s">
-        <v>149</v>
+        <v>229</v>
       </c>
       <c r="D41" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="C42" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D42" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1759,13 +1756,13 @@
         <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
+        <v>215</v>
       </c>
       <c r="D43" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1773,13 +1770,13 @@
         <v>25</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C44" t="s">
-        <v>132</v>
+        <v>226</v>
       </c>
       <c r="D44" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1787,13 +1784,13 @@
         <v>30</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="D45" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1801,13 +1798,13 @@
         <v>33</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>222</v>
       </c>
       <c r="D46" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1815,13 +1812,13 @@
         <v>37</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>147</v>
+        <v>238</v>
       </c>
       <c r="C47" t="s">
-        <v>146</v>
+        <v>227</v>
       </c>
       <c r="D47" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -1829,13 +1826,13 @@
         <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C48" t="s">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="D48" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1843,13 +1840,13 @@
         <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C49" t="s">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c r="D49" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1857,13 +1854,13 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="C50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D50" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1871,13 +1868,13 @@
         <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C51" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D51" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -1885,13 +1882,13 @@
         <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D52" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -1899,13 +1896,13 @@
         <v>86</v>
       </c>
       <c r="B53" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="C53" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D53" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1913,13 +1910,13 @@
         <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="C54" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D54" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1927,13 +1924,13 @@
         <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="C55" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D55" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -1941,13 +1938,13 @@
         <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="C56" t="s">
-        <v>146</v>
+        <v>225</v>
       </c>
       <c r="D56" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1958,10 +1955,10 @@
         <v>99</v>
       </c>
       <c r="C57" t="s">
-        <v>112</v>
+        <v>215</v>
       </c>
       <c r="D57" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1972,10 +1969,10 @@
         <v>108</v>
       </c>
       <c r="C58" t="s">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c r="D58" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1983,13 +1980,13 @@
         <v>17</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
-        <v>112</v>
+        <v>215</v>
       </c>
       <c r="D59" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1997,13 +1994,13 @@
         <v>18</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C60" t="s">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="D60" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2011,13 +2008,13 @@
         <v>34</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C61" t="s">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c r="D61" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2025,13 +2022,13 @@
         <v>35</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C62" t="s">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c r="D62" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2039,13 +2036,13 @@
         <v>45</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C63" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D63" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2053,13 +2050,13 @@
         <v>49</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="C64" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="D64" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2067,13 +2064,13 @@
         <v>50</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C65" t="s">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="D65" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2081,13 +2078,13 @@
         <v>51</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="C66" t="s">
-        <v>164</v>
+        <v>231</v>
       </c>
       <c r="D66" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2095,13 +2092,13 @@
         <v>57</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C67" t="s">
-        <v>112</v>
+        <v>215</v>
       </c>
       <c r="D67" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2109,13 +2106,13 @@
         <v>58</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="C68" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D68" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2123,13 +2120,13 @@
         <v>60</v>
       </c>
       <c r="B69" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="C69" t="s">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c r="D69" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2137,13 +2134,13 @@
         <v>63</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="C70" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="D70" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2151,13 +2148,13 @@
         <v>64</v>
       </c>
       <c r="B71" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C71" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
       <c r="D71" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2165,13 +2162,13 @@
         <v>66</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C72" t="s">
-        <v>112</v>
+        <v>215</v>
       </c>
       <c r="D72" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2179,13 +2176,13 @@
         <v>67</v>
       </c>
       <c r="B73" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="C73" t="s">
-        <v>116</v>
+        <v>233</v>
       </c>
       <c r="D73" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2193,13 +2190,13 @@
         <v>68</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="C74" t="s">
-        <v>112</v>
+        <v>215</v>
       </c>
       <c r="D74" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2207,13 +2204,13 @@
         <v>69</v>
       </c>
       <c r="B75" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="C75" t="s">
-        <v>112</v>
+        <v>215</v>
       </c>
       <c r="D75" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2221,13 +2218,13 @@
         <v>70</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C76" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="D76" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2235,13 +2232,13 @@
         <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="C77" t="s">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="D77" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2249,13 +2246,13 @@
         <v>73</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="C78" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D78" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2263,13 +2260,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="C79" t="s">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c r="D79" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2277,13 +2274,13 @@
         <v>82</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="C80" t="s">
-        <v>168</v>
+        <v>234</v>
       </c>
       <c r="D80" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -2291,13 +2288,13 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="C81" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D81" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2305,13 +2302,13 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="C82" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D82" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -2319,13 +2316,13 @@
         <v>89</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="C83" t="s">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="D83" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2333,13 +2330,13 @@
         <v>91</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="C84" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D84" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -2347,13 +2344,13 @@
         <v>92</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="C85" t="s">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="D85" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2361,13 +2358,13 @@
         <v>93</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="C86" t="s">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="D86" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -2375,13 +2372,13 @@
         <v>94</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="C87" t="s">
-        <v>146</v>
+        <v>227</v>
       </c>
       <c r="D87" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -2389,13 +2386,13 @@
         <v>95</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="C88" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="D88" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -2403,27 +2400,27 @@
         <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="C89" t="s">
-        <v>112</v>
+        <v>215</v>
       </c>
       <c r="D89" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="C90" t="s">
-        <v>138</v>
+        <v>216</v>
       </c>
       <c r="D90" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -2431,13 +2428,13 @@
         <v>28</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C91" t="s">
-        <v>136</v>
+        <v>235</v>
       </c>
       <c r="D91" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -2448,10 +2445,10 @@
         <v>106</v>
       </c>
       <c r="C92" t="s">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="D92" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -2459,13 +2456,13 @@
         <v>38</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C93" t="s">
-        <v>149</v>
+        <v>229</v>
       </c>
       <c r="D93" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2473,13 +2470,13 @@
         <v>43</v>
       </c>
       <c r="B94" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C94" t="s">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c r="D94" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -2487,27 +2484,27 @@
         <v>44</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C95" t="s">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c r="D95" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="C96" t="s">
-        <v>149</v>
+        <v>229</v>
       </c>
       <c r="D96" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -2515,13 +2512,13 @@
         <v>56</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c r="D97" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -2532,10 +2529,10 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>113</v>
+        <v>236</v>
       </c>
       <c r="D98" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -2546,10 +2543,10 @@
         <v>109</v>
       </c>
       <c r="C99" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="D99" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2557,27 +2554,27 @@
         <v>46</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="C100" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D100" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="C101" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="D101" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2585,13 +2582,13 @@
         <v>48</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="C102" t="s">
-        <v>160</v>
+        <v>221</v>
       </c>
       <c r="D102" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -2599,13 +2596,13 @@
         <v>59</v>
       </c>
       <c r="B103" t="s">
-        <v>174</v>
+        <v>237</v>
       </c>
       <c r="C103" t="s">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c r="D103" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -2613,13 +2610,13 @@
         <v>79</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C104" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="D104" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -2627,13 +2624,13 @@
         <v>80</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="C105" t="s">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c r="D105" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2642,17 +2639,17 @@
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="https://www.uniprot.org/uniprotkb/P42574/entry" xr:uid="{B1F07FBF-F097-1C41-93E0-B0139731C9C7}"/>
-    <hyperlink ref="B7" r:id="rId2" display="https://www.uniprot.org/uniprotkb/Q14790/entry" xr:uid="{08A76D5F-2EBD-5443-9BF8-DA3EB496E1A8}"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://www.uniprot.org/uniprotkb/P42574/entry" xr:uid="{B1F07FBF-F097-1C41-93E0-B0139731C9C7}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://www.uniprot.org/uniprotkb/Q14790/entry" xr:uid="{08A76D5F-2EBD-5443-9BF8-DA3EB496E1A8}"/>
     <hyperlink ref="B92" r:id="rId3" display="https://www.uniprot.org/uniprotkb/P78556/entry" xr:uid="{DEBAC446-7071-3143-9FBA-106852051B43}"/>
     <hyperlink ref="B10" r:id="rId4" display="https://www.uniprot.org/uniprotkb/Q8NHS1/entry" xr:uid="{5D8407CA-FCC3-654A-9B68-8EAEF7C2A55A}"/>
     <hyperlink ref="B58" r:id="rId5" display="https://www.uniprot.org/uniprotkb/P00403/entry" xr:uid="{A8703ADE-FD4C-0D4C-9A59-382EB89BCADE}"/>
     <hyperlink ref="B11" r:id="rId6" display="https://www.uniprot.org/uniprotkb/P09341/entry" xr:uid="{617C6108-4789-614A-ADDC-EFE741208841}"/>
     <hyperlink ref="B12" r:id="rId7" display="https://www.uniprot.org/uniprotkb/P19876/entry" xr:uid="{8580867B-20B6-CA41-88FD-909F05455B47}"/>
-    <hyperlink ref="B4" r:id="rId8" display="https://www.uniprot.org/uniprot/Q9NR28" xr:uid="{E6C95912-DB56-6244-8386-DC14CCD461EF}"/>
+    <hyperlink ref="B9" r:id="rId8" display="https://www.uniprot.org/uniprot/Q9NR28" xr:uid="{E6C95912-DB56-6244-8386-DC14CCD461EF}"/>
     <hyperlink ref="B59" r:id="rId9" display="https://www.uniprot.org/uniprotkb/Q9NRD8/entry" xr:uid="{45F5742C-3FB6-5343-BE86-22D7B0FDE964}"/>
     <hyperlink ref="B60" r:id="rId10" display="https://www.uniprot.org/uniprot/Q13158" xr:uid="{119834BE-9C5D-EB48-83E7-FC2D8E09B6F7}"/>
-    <hyperlink ref="B8" r:id="rId11" display="https://www.uniprot.org/uniprot/O43524" xr:uid="{3EB9E0C0-B6C8-D646-8A88-EFF767986C9F}"/>
+    <hyperlink ref="B5" r:id="rId11" display="https://www.uniprot.org/uniprot/O43524" xr:uid="{3EB9E0C0-B6C8-D646-8A88-EFF767986C9F}"/>
     <hyperlink ref="B14" r:id="rId12" display="https://www.uniprot.org/uniprotkb/P14902/entry" xr:uid="{95DBFAE5-7815-2045-8A3A-AE88183D9A06}"/>
     <hyperlink ref="B15" r:id="rId13" display="https://www.uniprot.org/uniprot/P01562" xr:uid="{10308090-17A0-7D46-BC85-A1503DB3EA53}"/>
     <hyperlink ref="B29" r:id="rId14" display="https://www.uniprot.org/uniprot/P01562" xr:uid="{11D3D754-2BD1-1747-B8CD-0BAD11CFFB07}"/>
